--- a/salary.xlsx
+++ b/salary.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\InitialASCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ascp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD71293F-0FE1-49F5-9EEB-4C37E79169DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209CB54-B28E-4A81-AB02-99D6A71FF2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1335" windowWidth="15255" windowHeight="14865"/>
+    <workbookView xWindow="2730" yWindow="1335" windowWidth="15255" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="salary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>AIRCRAFT</t>
   </si>
@@ -45,11 +58,15 @@
   <si>
     <t>A320-200</t>
   </si>
+  <si>
+    <t>LAYOVER_SALARY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -994,14 +1011,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,8 +1039,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1028,8 +1056,12 @@
       <c r="D2">
         <v>3220</v>
       </c>
+      <c r="E2">
+        <f>D2/2</f>
+        <v>1610</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1042,8 +1074,12 @@
       <c r="D3">
         <v>2275</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3/2</f>
+        <v>1137.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1092,12 @@
       <c r="D4">
         <v>2275</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1137.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1069,6 +1109,10 @@
       </c>
       <c r="D5">
         <v>1925</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>962.5</v>
       </c>
     </row>
   </sheetData>
